--- a/trunk/DOCS/Test Cases/TC03- Request.xlsx
+++ b/trunk/DOCS/Test Cases/TC03- Request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Intput Type</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Reply a request</t>
+  </si>
+  <si>
+    <t>TC03.11</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1012,290 +1024,333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.25" customHeight="1">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1" thickTop="1">
+      <c r="K3" s="10"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="27" customHeight="1" thickTop="1">
       <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="B14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/DOCS/Test Cases/TC03- Request.xlsx
+++ b/trunk/DOCS/Test Cases/TC03- Request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Intput Type</t>
   </si>
@@ -208,6 +208,63 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Need item amount</t>
+  </si>
+  <si>
+    <t>more than 0 and less then needed</t>
+  </si>
+  <si>
+    <t>more than needed</t>
+  </si>
+  <si>
+    <t>TC03.12</t>
+  </si>
+  <si>
+    <t>Answer is registered in the system as rejected</t>
+  </si>
+  <si>
+    <t>Accepting a request without providing any item via mobile</t>
+  </si>
+  <si>
+    <t>Accepting a request with 0 amount via mobile</t>
+  </si>
+  <si>
+    <t>O2:0</t>
+  </si>
+  <si>
+    <t>TC03.13</t>
+  </si>
+  <si>
+    <t>Accepting a request with valide amount via mobile</t>
+  </si>
+  <si>
+    <t>TC03.14</t>
+  </si>
+  <si>
+    <t>TC03.15</t>
+  </si>
+  <si>
+    <t>Accepting a request with amount more than needed via mobile</t>
+  </si>
+  <si>
+    <t>O3:more than 0 and less then needed</t>
+  </si>
+  <si>
+    <t>O4:more than needed</t>
+  </si>
+  <si>
+    <t>Answer is succesfully registered in the system as accepted with provided amount</t>
+  </si>
+  <si>
+    <t>Answer is succesfully registered in the system as accepted with requested amount</t>
+  </si>
+  <si>
+    <t>TC03.16</t>
+  </si>
+  <si>
+    <t>Reject a request via mobile</t>
   </si>
 </sst>
 </file>
@@ -692,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,6 +843,28 @@
       <c r="I4" s="6"/>
       <c r="J4" s="1"/>
     </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
@@ -796,7 +875,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
@@ -916,7 +995,6 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
@@ -953,14 +1031,14 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4"/>
@@ -1006,17 +1084,6 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1024,22 +1091,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1">
@@ -1097,7 +1164,9 @@
       <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1341,6 +1410,90 @@
       </c>
       <c r="C14" s="8" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1">
+      <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="45">
+      <c r="A17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="L19" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
